--- a/SO SACH - LA/SO SACH/2013/141 - 341 - 13.xlsx
+++ b/SO SACH - LA/SO SACH/2013/141 - 341 - 13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="311-341" sheetId="20" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'141-BH'!$A$14:$N$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'141-VV'!$A$14:$Q$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH-VAY'!$A$4:$L$4</definedName>
-    <definedName name="_TH1">'TH-VAY'!$H$5:$H$31</definedName>
-    <definedName name="_TH2">'TH-VAY'!$I$5:$I$31</definedName>
-    <definedName name="_TH3">'TH-VAY'!$J$5:$J$31</definedName>
-    <definedName name="_TH4">'TH-VAY'!$K$5:$K$31</definedName>
+    <definedName name="_TH1">'TH-VAY'!$H$5:$H$34</definedName>
+    <definedName name="_TH2">'TH-VAY'!$I$5:$I$34</definedName>
+    <definedName name="_TH3">'TH-VAY'!$J$5:$J$34</definedName>
+    <definedName name="_TH4">'TH-VAY'!$K$5:$K$34</definedName>
     <definedName name="Dau">IF(Loai='141-TT-BH'!$D$3-1,ROW(Loai)-1,"")</definedName>
     <definedName name="Dong">IF(Loai='141-TT-BH'!$D$3,ROW(Loai)-1,"")</definedName>
     <definedName name="Dong01">IF(Loai01="111",ROW(Loai01)-1,"")</definedName>
@@ -37,12 +37,12 @@
     <definedName name="DSKU">'311-341'!$B$5:$B$9</definedName>
     <definedName name="DSKU1">'311-341'!$B$20:$G$31</definedName>
     <definedName name="DSKU2">'311-341'!$B$20:$B$31</definedName>
-    <definedName name="KUTH">'TH-VAY'!$E$5:$E$31</definedName>
+    <definedName name="KUTH">'TH-VAY'!$E$5:$E$34</definedName>
     <definedName name="Loai">OFFSET('141-BH'!$J$15,,,COUNTA('141-BH'!$J$15:$J$40025))</definedName>
     <definedName name="Loai01">OFFSET('141-BH'!$R$16,,,COUNTA('141-BH'!$R$16:$R$40025))</definedName>
     <definedName name="Loai02">OFFSET('141-VV'!$Q$16,,,COUNTA('141-VV'!$Q$16:$R$40112))</definedName>
     <definedName name="Loai1">OFFSET('141-VV'!$J$15,,,COUNTA('141-VV'!$J$15:$J$40111))</definedName>
-    <definedName name="Loai4">OFFSET('TH-VAY'!$E$5,,,COUNTA('TH-VAY'!$E$5:$E$40046))</definedName>
+    <definedName name="Loai4">OFFSET('TH-VAY'!$E$5,,,COUNTA('TH-VAY'!$E$5:$E$40049))</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'311-341'!$A$1:$O$8</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -2217,7 +2217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
@@ -2928,6 +2928,36 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="21" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="30" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="19" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2937,24 +2967,6 @@
     <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="30" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="19" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2994,9 +3006,24 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3012,21 +3039,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,9 +3098,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="79">
@@ -3492,11 +3501,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD12"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -3516,36 +3525,38 @@
     <col min="13" max="13" width="10.85546875" style="146" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="146" customWidth="1"/>
     <col min="15" max="15" width="13" style="165" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="146"/>
+    <col min="16" max="16" width="12.42578125" style="165" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="146" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A1" s="256" t="s">
+    <row r="1" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A1" s="257" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="256"/>
-      <c r="O1" s="256"/>
-    </row>
-    <row r="2" spans="1:15" s="149" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="248" t="s">
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+    </row>
+    <row r="2" spans="1:17" s="149" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="251" t="s">
+      <c r="C2" s="252" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="147" t="s">
@@ -3566,40 +3577,42 @@
       <c r="M2" s="147"/>
       <c r="N2" s="147"/>
       <c r="O2" s="148"/>
-    </row>
-    <row r="3" spans="1:15" s="149" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="249"/>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="254" t="s">
+      <c r="P2" s="250"/>
+    </row>
+    <row r="3" spans="1:17" s="149" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="259"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="255"/>
-      <c r="F3" s="254" t="s">
+      <c r="E3" s="256"/>
+      <c r="F3" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="255"/>
-      <c r="H3" s="254" t="s">
+      <c r="G3" s="256"/>
+      <c r="H3" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="255"/>
-      <c r="J3" s="254" t="s">
+      <c r="I3" s="256"/>
+      <c r="J3" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="255"/>
-      <c r="L3" s="254" t="s">
+      <c r="K3" s="256"/>
+      <c r="L3" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="255"/>
-      <c r="N3" s="254" t="s">
+      <c r="M3" s="256"/>
+      <c r="N3" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="255"/>
-    </row>
-    <row r="4" spans="1:15" s="149" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="250"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="250"/>
+    </row>
+    <row r="4" spans="1:17" s="149" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="260"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
       <c r="D4" s="150" t="s">
         <v>96</v>
       </c>
@@ -3636,8 +3649,9 @@
       <c r="O4" s="151" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P4" s="250"/>
+    </row>
+    <row r="5" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="152">
         <v>1</v>
       </c>
@@ -3691,8 +3705,10 @@
         <f t="shared" ref="O5:O8" si="7">ROUND(MAX(G5+K5-E5-I5,0),2)</f>
         <v>615404499</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P5" s="250"/>
+      <c r="Q5" s="249"/>
+    </row>
+    <row r="6" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="152">
         <v>2</v>
       </c>
@@ -3746,8 +3762,10 @@
         <f t="shared" si="7"/>
         <v>2067907207</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P6" s="250"/>
+      <c r="Q6" s="249"/>
+    </row>
+    <row r="7" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="152">
         <v>3</v>
       </c>
@@ -3801,8 +3819,10 @@
         <f t="shared" si="7"/>
         <v>1289242264</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P7" s="250"/>
+      <c r="Q7" s="249"/>
+    </row>
+    <row r="8" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="152">
         <v>4</v>
       </c>
@@ -3856,8 +3876,10 @@
         <f t="shared" si="7"/>
         <v>1804337638</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P8" s="250"/>
+      <c r="Q8" s="249"/>
+    </row>
+    <row r="9" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="152"/>
       <c r="B9" s="159"/>
       <c r="C9" s="216"/>
@@ -3873,8 +3895,9 @@
       <c r="M9" s="157"/>
       <c r="N9" s="156"/>
       <c r="O9" s="157"/>
-    </row>
-    <row r="10" spans="1:15" s="164" customFormat="1" ht="18" customHeight="1">
+      <c r="P9" s="250"/>
+    </row>
+    <row r="10" spans="1:17" s="164" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="160"/>
       <c r="B10" s="161" t="s">
         <v>102</v>
@@ -3928,29 +3951,30 @@
         <f t="shared" si="8"/>
         <v>5776891608</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="301"/>
-      <c r="I12" s="301"/>
-      <c r="J12" s="301"/>
-      <c r="K12" s="301"/>
-      <c r="L12" s="301"/>
-      <c r="M12" s="301"/>
-      <c r="N12" s="301"/>
-      <c r="O12" s="301"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P10" s="251"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="G14" s="240"/>
       <c r="H14" s="240"/>
       <c r="I14" s="240"/>
       <c r="J14" s="240"/>
       <c r="K14" s="240"/>
     </row>
-    <row r="16" spans="1:15" ht="21.75" customHeight="1">
+    <row r="16" spans="1:17" ht="21.75" customHeight="1">
       <c r="B16" s="246"/>
       <c r="C16" s="246"/>
       <c r="D16" s="246"/>
@@ -3968,14 +3992,14 @@
       <c r="N16" s="246"/>
       <c r="O16" s="246"/>
     </row>
-    <row r="17" spans="1:15" s="149" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="248" t="s">
+    <row r="17" spans="1:16" s="149" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A17" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="251" t="s">
+      <c r="B17" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="251" t="s">
+      <c r="C17" s="252" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="147" t="s">
@@ -3996,40 +4020,42 @@
       <c r="M17" s="147"/>
       <c r="N17" s="147"/>
       <c r="O17" s="148"/>
-    </row>
-    <row r="18" spans="1:15" s="149" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="249"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="254" t="s">
+      <c r="P17" s="250"/>
+    </row>
+    <row r="18" spans="1:16" s="149" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="259"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="255"/>
-      <c r="F18" s="254" t="s">
+      <c r="E18" s="256"/>
+      <c r="F18" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="255"/>
-      <c r="H18" s="254" t="s">
+      <c r="G18" s="256"/>
+      <c r="H18" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="255"/>
-      <c r="J18" s="254" t="s">
+      <c r="I18" s="256"/>
+      <c r="J18" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="255"/>
-      <c r="L18" s="254" t="s">
+      <c r="K18" s="256"/>
+      <c r="L18" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="255"/>
-      <c r="N18" s="254" t="s">
+      <c r="M18" s="256"/>
+      <c r="N18" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="255"/>
-    </row>
-    <row r="19" spans="1:15" s="149" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="250"/>
-      <c r="B19" s="253"/>
-      <c r="C19" s="253"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="250"/>
+    </row>
+    <row r="19" spans="1:16" s="149" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="260"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="254"/>
       <c r="D19" s="150" t="s">
         <v>96</v>
       </c>
@@ -4066,8 +4092,9 @@
       <c r="O19" s="151" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P19" s="250"/>
+    </row>
+    <row r="20" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="152">
         <v>1</v>
       </c>
@@ -4121,8 +4148,9 @@
         <f t="shared" ref="O20:O23" si="16">ROUND(MAX(G20+K20-E20-I20,0),2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P20" s="250"/>
+    </row>
+    <row r="21" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="152">
         <v>2</v>
       </c>
@@ -4176,8 +4204,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P21" s="250"/>
+    </row>
+    <row r="22" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="152">
         <v>3</v>
       </c>
@@ -4231,8 +4260,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P22" s="250"/>
+    </row>
+    <row r="23" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="152">
         <v>4</v>
       </c>
@@ -4286,8 +4316,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P23" s="250"/>
+    </row>
+    <row r="24" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="152">
         <v>5</v>
       </c>
@@ -4341,8 +4372,9 @@
         <f t="shared" ref="O24:O30" si="20">ROUND(MAX(G24+K24-E24-I24,0),2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P24" s="250"/>
+    </row>
+    <row r="25" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="152">
         <v>6</v>
       </c>
@@ -4396,8 +4428,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P25" s="250"/>
+    </row>
+    <row r="26" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="152">
         <v>7</v>
       </c>
@@ -4451,8 +4484,9 @@
         <f t="shared" si="20"/>
         <v>1965255000</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P26" s="250"/>
+    </row>
+    <row r="27" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="152">
         <v>8</v>
       </c>
@@ -4506,8 +4540,9 @@
         <f t="shared" si="20"/>
         <v>2015900000</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P27" s="250"/>
+    </row>
+    <row r="28" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="152">
         <v>9</v>
       </c>
@@ -4561,8 +4596,9 @@
         <f t="shared" si="20"/>
         <v>2066330000</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P28" s="250"/>
+    </row>
+    <row r="29" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="152">
         <v>10</v>
       </c>
@@ -4616,8 +4652,9 @@
         <f t="shared" si="20"/>
         <v>2017075500</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P29" s="250"/>
+    </row>
+    <row r="30" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="152">
         <v>11</v>
       </c>
@@ -4663,8 +4700,9 @@
         <f t="shared" si="20"/>
         <v>1909550000</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="P30" s="250"/>
+    </row>
+    <row r="31" spans="1:16" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="152"/>
       <c r="B31" s="159"/>
       <c r="C31" s="216"/>
@@ -4680,80 +4718,80 @@
       <c r="M31" s="157"/>
       <c r="N31" s="156"/>
       <c r="O31" s="157"/>
-    </row>
-    <row r="32" spans="1:15" s="164" customFormat="1" ht="18" customHeight="1">
+      <c r="P31" s="250"/>
+    </row>
+    <row r="32" spans="1:16" s="164" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="160"/>
       <c r="B32" s="161" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="161"/>
       <c r="D32" s="162">
-        <f>SUM(D20:D31)</f>
+        <f t="shared" ref="D32:O32" si="21">SUM(D20:D31)</f>
         <v>0</v>
       </c>
       <c r="E32" s="163">
-        <f>SUM(E20:E31)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F32" s="162">
-        <f>SUM(F20:F31)</f>
+        <f t="shared" si="21"/>
         <v>287120</v>
       </c>
       <c r="G32" s="163">
-        <f>SUM(G20:G31)</f>
+        <f t="shared" si="21"/>
         <v>5992427840</v>
       </c>
       <c r="H32" s="162">
-        <f>SUM(H20:H31)</f>
+        <f t="shared" si="21"/>
         <v>573445</v>
       </c>
       <c r="I32" s="163">
-        <f>SUM(I20:I31)</f>
+        <f t="shared" si="21"/>
         <v>12070080180</v>
       </c>
       <c r="J32" s="162">
-        <f>SUM(J20:J31)</f>
+        <f t="shared" si="21"/>
         <v>757695</v>
       </c>
       <c r="K32" s="163">
-        <f>SUM(K20:K31)</f>
+        <f t="shared" si="21"/>
         <v>16051762840</v>
       </c>
       <c r="L32" s="162">
-        <f>SUM(L20:L31)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M32" s="163">
-        <f>SUM(M20:M31)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N32" s="162">
-        <f>SUM(N20:N31)</f>
+        <f t="shared" si="21"/>
         <v>471370</v>
       </c>
       <c r="O32" s="163">
-        <f>SUM(O20:O31)</f>
+        <f t="shared" si="21"/>
         <v>9974110500</v>
       </c>
+      <c r="P32" s="251"/>
     </row>
     <row r="34" spans="4:15">
-      <c r="D34" s="301"/>
-      <c r="E34" s="301"/>
-      <c r="F34" s="301"/>
-      <c r="G34" s="301"/>
-      <c r="H34" s="301"/>
-      <c r="I34" s="301"/>
-      <c r="J34" s="301"/>
-      <c r="K34" s="301"/>
-      <c r="L34" s="301"/>
-      <c r="M34" s="301"/>
-      <c r="N34" s="301"/>
-      <c r="O34" s="301"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="248"/>
+      <c r="F34" s="248"/>
+      <c r="G34" s="248"/>
+      <c r="H34" s="248"/>
+      <c r="I34" s="248"/>
+      <c r="J34" s="248"/>
+      <c r="K34" s="248"/>
+      <c r="L34" s="248"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="248"/>
+      <c r="O34" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="A1:O1"/>
@@ -4771,6 +4809,8 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.65" right="0.15" top="0.36" bottom="0.21" header="0.2" footer="0"/>
@@ -4784,11 +4824,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4808,65 +4848,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="172" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="264" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="260" t="s">
+      <c r="C1" s="268"/>
+      <c r="D1" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="260" t="s">
+      <c r="E1" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="260" t="s">
+      <c r="F1" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="260" t="s">
+      <c r="G1" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="263" t="s">
+      <c r="H1" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="257" t="s">
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="261" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="172" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="261"/>
-      <c r="B2" s="266" t="s">
+      <c r="A2" s="265"/>
+      <c r="B2" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="268" t="s">
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="269"/>
-      <c r="J2" s="268" t="s">
+      <c r="I2" s="273"/>
+      <c r="J2" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="269"/>
-      <c r="L2" s="258"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="262"/>
     </row>
     <row r="3" spans="1:12" s="172" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
       <c r="H3" s="173" t="s">
         <v>96</v>
       </c>
@@ -4879,7 +4919,7 @@
       <c r="K3" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="259"/>
+      <c r="L3" s="263"/>
     </row>
     <row r="4" spans="1:12" s="172" customFormat="1">
       <c r="A4" s="174" t="s">
@@ -4989,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="191" t="str">
-        <f t="shared" ref="L6:L30" si="1">IF(E6&lt;&gt;"",IF(MID(E6,4,4)="1015","Q11","Q4"),"")</f>
+        <f t="shared" ref="L6:L29" si="1">IF(E6&lt;&gt;"",IF(MID(E6,4,4)="1015","Q11","Q4"),"")</f>
         <v>Q11</v>
       </c>
     </row>
@@ -5783,7 +5823,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
       <c r="A29" s="233" t="str">
-        <f t="shared" ref="A29:A31" si="2">IF(C29&lt;&gt;"",MONTH(C29),"")</f>
+        <f t="shared" ref="A29" si="2">IF(C29&lt;&gt;"",MONTH(C29),"")</f>
         <v/>
       </c>
       <c r="B29" s="181"/>
@@ -5794,12 +5834,12 @@
       <c r="G29" s="183"/>
       <c r="H29" s="166"/>
       <c r="I29" s="155">
-        <f t="shared" ref="I29:I31" si="3">G29*H29</f>
+        <f t="shared" ref="I29:I32" si="3">G29*H29</f>
         <v>0</v>
       </c>
       <c r="J29" s="166"/>
       <c r="K29" s="155">
-        <f t="shared" ref="K29:K31" si="4">G29*J29</f>
+        <f t="shared" ref="K29:K32" si="4">G29*J29</f>
         <v>0</v>
       </c>
       <c r="L29" s="191" t="str">
@@ -5809,7 +5849,7 @@
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
       <c r="A30" s="233" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A30:A34" si="5">IF(C30&lt;&gt;"",MONTH(C30),"")</f>
         <v/>
       </c>
       <c r="B30" s="181"/>
@@ -5829,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="L30" s="191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L30:L34" si="6">IF(E30&lt;&gt;"",IF(MID(E30,4,4)="1015","Q11","Q4"),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
       <c r="A31" s="233" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B31" s="181"/>
@@ -5855,7 +5895,85 @@
         <v>0</v>
       </c>
       <c r="L31" s="191" t="str">
-        <f t="shared" ref="L31" si="5">IF(E31&lt;&gt;"",IF(MID(E31,4,4)="1015","Q11","Q4"),"")</f>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A32" s="233" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="166"/>
+      <c r="K32" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="191" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A33" s="233" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="222"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="155">
+        <f t="shared" ref="I30:I34" si="7">G33*H33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="166"/>
+      <c r="K33" s="155">
+        <f t="shared" ref="K33:K34" si="8">G33*J33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="191" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A34" s="233" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="222"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="166"/>
+      <c r="K34" s="155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="191" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5876,7 +5994,7 @@
     <mergeCell ref="G1:G3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E31 E5:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E20 E29:E34">
       <formula1>DSKU</formula1>
     </dataValidation>
   </dataValidations>
@@ -5892,8 +6010,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5923,13 +6041,13 @@
       <c r="C1" s="169"/>
       <c r="H1" s="169"/>
       <c r="I1" s="169"/>
-      <c r="J1" s="277" t="s">
+      <c r="J1" s="276" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
-      <c r="N1" s="277"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
     </row>
     <row r="2" spans="1:14" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="168" t="s">
@@ -5939,13 +6057,13 @@
       <c r="C2" s="212"/>
       <c r="H2" s="171"/>
       <c r="I2" s="171"/>
-      <c r="J2" s="278" t="s">
+      <c r="J2" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
     </row>
     <row r="3" spans="1:14" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="212"/>
@@ -5953,11 +6071,11 @@
       <c r="C3" s="212"/>
       <c r="H3" s="171"/>
       <c r="I3" s="171"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
     </row>
     <row r="4" spans="1:14" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="212"/>
@@ -5972,77 +6090,77 @@
       <c r="N4" s="213"/>
     </row>
     <row r="5" spans="1:14" s="172" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="279" t="s">
+      <c r="A5" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="280"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="279"/>
     </row>
     <row r="6" spans="1:14" s="172" customFormat="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
-      <c r="L6" s="271"/>
-      <c r="M6" s="271"/>
-      <c r="N6" s="271"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
     </row>
     <row r="7" spans="1:14" s="172" customFormat="1">
-      <c r="A7" s="271" t="s">
+      <c r="A7" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="271"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="271"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="271"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="271"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="280"/>
+      <c r="L7" s="280"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="280"/>
     </row>
     <row r="8" spans="1:14" s="172" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="271" t="str">
+      <c r="A8" s="280" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B8" s="271"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="271"/>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="271"/>
+      <c r="B8" s="280"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="280"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
     </row>
     <row r="9" spans="1:14" s="172" customFormat="1">
       <c r="A9" s="211"/>
@@ -6054,13 +6172,13 @@
       <c r="G9" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="272" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="272"/>
+      <c r="H9" s="281" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="281"/>
       <c r="J9" s="226" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'311-341'!$B$5:$C$9,2,0),"dd/MM/yy")</f>
-        <v>ngày 22/01/10</v>
+        <v>ngày 25/02/12</v>
       </c>
       <c r="K9" s="211"/>
       <c r="L9" s="211"/>
@@ -6068,102 +6186,102 @@
       <c r="N9" s="211"/>
     </row>
     <row r="10" spans="1:14" s="172" customFormat="1">
-      <c r="A10" s="271" t="s">
+      <c r="A10" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="271"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="271"/>
-      <c r="K10" s="271"/>
-      <c r="L10" s="271"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="271"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="280"/>
+      <c r="K10" s="280"/>
+      <c r="L10" s="280"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="280"/>
     </row>
     <row r="11" spans="1:14" s="172" customFormat="1">
-      <c r="C11" s="273"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="273"/>
-      <c r="I11" s="273"/>
-      <c r="J11" s="273"/>
-      <c r="K11" s="273"/>
-      <c r="L11" s="273"/>
-      <c r="M11" s="273"/>
-      <c r="N11" s="273"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="282"/>
+      <c r="G11" s="282"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="282"/>
+      <c r="J11" s="282"/>
+      <c r="K11" s="282"/>
+      <c r="L11" s="282"/>
+      <c r="M11" s="282"/>
+      <c r="N11" s="282"/>
     </row>
     <row r="12" spans="1:14" s="172" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="260" t="s">
+      <c r="A12" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="264"/>
-      <c r="D12" s="260" t="s">
+      <c r="C12" s="268"/>
+      <c r="D12" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="260" t="s">
+      <c r="E12" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="260" t="s">
+      <c r="F12" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="263" t="s">
+      <c r="G12" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="270"/>
-      <c r="K12" s="263" t="s">
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="276"/>
-      <c r="M12" s="276"/>
-      <c r="N12" s="270"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="275"/>
     </row>
     <row r="13" spans="1:14" s="172" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="261"/>
-      <c r="B13" s="266" t="s">
+      <c r="A13" s="265"/>
+      <c r="B13" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="266" t="s">
+      <c r="C13" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="274"/>
-      <c r="G13" s="268" t="s">
+      <c r="D13" s="265"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="270"/>
-      <c r="I13" s="268" t="s">
+      <c r="H13" s="275"/>
+      <c r="I13" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="270"/>
-      <c r="K13" s="268" t="s">
+      <c r="J13" s="275"/>
+      <c r="K13" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="270"/>
-      <c r="M13" s="268" t="s">
+      <c r="L13" s="275"/>
+      <c r="M13" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="270"/>
+      <c r="N13" s="275"/>
     </row>
     <row r="14" spans="1:14" s="172" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="262"/>
-      <c r="B14" s="267"/>
-      <c r="C14" s="267"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="275"/>
+      <c r="A14" s="266"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="284"/>
       <c r="G14" s="173" t="s">
         <v>96</v>
       </c>
@@ -6256,53 +6374,53 @@
       </c>
       <c r="M16" s="178">
         <f>VLOOKUP($H$9,'311-341'!$B$5:$G$9,5,0)</f>
-        <v>37981</v>
+        <v>107687.38</v>
       </c>
       <c r="N16" s="179">
         <f>VLOOKUP($H$9,'311-341'!$B$5:$G$9,6,0)</f>
-        <v>615404499</v>
+        <v>2250666638</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="172" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A17" s="180" t="str">
+      <c r="A17" s="180">
         <f ca="1">IF(D17&lt;&gt;"",C17,"")</f>
-        <v/>
+        <v>41558</v>
       </c>
       <c r="B17" s="181" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!B$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
-      </c>
-      <c r="C17" s="181" t="str">
+        <v>GBN</v>
+      </c>
+      <c r="C17" s="181">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!C$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
+        <v>41558</v>
       </c>
       <c r="D17" s="231" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!D$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
+        <v>Trả nợ vay định kỳ</v>
       </c>
       <c r="E17" s="181" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!F$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
-      </c>
-      <c r="F17" s="228" t="str">
+        <v>1122</v>
+      </c>
+      <c r="F17" s="228">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!G$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
-      </c>
-      <c r="G17" s="229" t="str">
+        <v>21125</v>
+      </c>
+      <c r="G17" s="229">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!H$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
-      </c>
-      <c r="H17" s="228" t="str">
+        <v>21128</v>
+      </c>
+      <c r="H17" s="228">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!I$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
-      </c>
-      <c r="I17" s="229" t="str">
+        <v>446329000</v>
+      </c>
+      <c r="I17" s="229">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!J$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
-      </c>
-      <c r="J17" s="228" t="str">
+        <v>0</v>
+      </c>
+      <c r="J17" s="228">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-VAY'!K$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="154">
         <f t="shared" ref="K17" ca="1" si="0">IF(C17&lt;&gt;"",ROUND(MAX(K16+G17-I17-M16,0),2),0)</f>
@@ -6314,11 +6432,11 @@
       </c>
       <c r="M17" s="154">
         <f t="shared" ref="M17" ca="1" si="2">IF(C17&lt;&gt;"",ROUND(MAX(M16+I17-G17-K16,0),2),0)</f>
-        <v>0</v>
+        <v>86559.38</v>
       </c>
       <c r="N17" s="155">
         <f t="shared" ref="N17" ca="1" si="3">IF(C17&lt;&gt;"",MAX(N16-L16+J17-H17,0),0)</f>
-        <v>0</v>
+        <v>1804337638</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="189" customFormat="1" ht="19.5" customHeight="1">
@@ -6468,11 +6586,11 @@
       </c>
       <c r="G21" s="192">
         <f ca="1">SUM(G17:G18)</f>
-        <v>0</v>
+        <v>21128</v>
       </c>
       <c r="H21" s="193">
         <f ca="1">SUM(H17:H18)</f>
-        <v>0</v>
+        <v>446329000</v>
       </c>
       <c r="I21" s="192">
         <f ca="1">SUM(I17:I18)</f>
@@ -6530,11 +6648,11 @@
       </c>
       <c r="M22" s="197">
         <f ca="1">MAX(M16+I21-K16-G21,0)</f>
-        <v>37981</v>
+        <v>86559.38</v>
       </c>
       <c r="N22" s="198">
         <f ca="1">MAX(N16+J21-L16-H21,0)</f>
-        <v>615404499</v>
+        <v>1804337638</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="172" customFormat="1">
@@ -6551,7 +6669,7 @@
     <row r="25" spans="1:14" s="172" customFormat="1">
       <c r="C25" s="199" t="str">
         <f>"- Ngày mở sổ: "&amp;TEXT(VLOOKUP($H$9,'311-341'!$B$5:$C$9,2,0),"dd/MM/yy")</f>
-        <v>- Ngày mở sổ: 22/01/10</v>
+        <v>- Ngày mở sổ: 25/02/12</v>
       </c>
       <c r="E25" s="211"/>
       <c r="F25" s="211"/>
@@ -6602,13 +6720,13 @@
       <c r="C34" s="169"/>
       <c r="H34" s="169"/>
       <c r="I34" s="169"/>
-      <c r="J34" s="277" t="s">
+      <c r="J34" s="276" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="277"/>
-      <c r="L34" s="277"/>
-      <c r="M34" s="277"/>
-      <c r="N34" s="277"/>
+      <c r="K34" s="276"/>
+      <c r="L34" s="276"/>
+      <c r="M34" s="276"/>
+      <c r="N34" s="276"/>
     </row>
     <row r="35" spans="1:14" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="168" t="s">
@@ -6618,13 +6736,13 @@
       <c r="C35" s="243"/>
       <c r="H35" s="171"/>
       <c r="I35" s="171"/>
-      <c r="J35" s="278" t="s">
+      <c r="J35" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="278"/>
-      <c r="L35" s="278"/>
-      <c r="M35" s="278"/>
-      <c r="N35" s="278"/>
+      <c r="K35" s="277"/>
+      <c r="L35" s="277"/>
+      <c r="M35" s="277"/>
+      <c r="N35" s="277"/>
     </row>
     <row r="36" spans="1:14" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="243"/>
@@ -6632,11 +6750,11 @@
       <c r="C36" s="243"/>
       <c r="H36" s="171"/>
       <c r="I36" s="171"/>
-      <c r="J36" s="278"/>
-      <c r="K36" s="278"/>
-      <c r="L36" s="278"/>
-      <c r="M36" s="278"/>
-      <c r="N36" s="278"/>
+      <c r="J36" s="277"/>
+      <c r="K36" s="277"/>
+      <c r="L36" s="277"/>
+      <c r="M36" s="277"/>
+      <c r="N36" s="277"/>
     </row>
     <row r="37" spans="1:14" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="243"/>
@@ -6651,77 +6769,77 @@
       <c r="N37" s="244"/>
     </row>
     <row r="38" spans="1:14" s="172" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A38" s="279" t="s">
+      <c r="A38" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="280"/>
-      <c r="C38" s="280"/>
-      <c r="D38" s="280"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="280"/>
-      <c r="G38" s="280"/>
-      <c r="H38" s="280"/>
-      <c r="I38" s="280"/>
-      <c r="J38" s="280"/>
-      <c r="K38" s="280"/>
-      <c r="L38" s="280"/>
-      <c r="M38" s="280"/>
-      <c r="N38" s="280"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="279"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
+      <c r="K38" s="279"/>
+      <c r="L38" s="279"/>
+      <c r="M38" s="279"/>
+      <c r="N38" s="279"/>
     </row>
     <row r="39" spans="1:14" s="172" customFormat="1">
-      <c r="A39" s="271" t="s">
+      <c r="A39" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="271"/>
-      <c r="C39" s="271"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="271"/>
-      <c r="I39" s="271"/>
-      <c r="J39" s="271"/>
-      <c r="K39" s="271"/>
-      <c r="L39" s="271"/>
-      <c r="M39" s="271"/>
-      <c r="N39" s="271"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="280"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
+      <c r="H39" s="280"/>
+      <c r="I39" s="280"/>
+      <c r="J39" s="280"/>
+      <c r="K39" s="280"/>
+      <c r="L39" s="280"/>
+      <c r="M39" s="280"/>
+      <c r="N39" s="280"/>
     </row>
     <row r="40" spans="1:14" s="172" customFormat="1">
-      <c r="A40" s="271" t="s">
+      <c r="A40" s="280" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="271"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
-      <c r="F40" s="271"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="271"/>
-      <c r="I40" s="271"/>
-      <c r="J40" s="271"/>
-      <c r="K40" s="271"/>
-      <c r="L40" s="271"/>
-      <c r="M40" s="271"/>
-      <c r="N40" s="271"/>
+      <c r="B40" s="280"/>
+      <c r="C40" s="280"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="280"/>
+      <c r="F40" s="280"/>
+      <c r="G40" s="280"/>
+      <c r="H40" s="280"/>
+      <c r="I40" s="280"/>
+      <c r="J40" s="280"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="280"/>
+      <c r="N40" s="280"/>
     </row>
     <row r="41" spans="1:14" s="172" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="271" t="str">
+      <c r="A41" s="280" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B41" s="271"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="271"/>
-      <c r="J41" s="271"/>
-      <c r="K41" s="271"/>
-      <c r="L41" s="271"/>
-      <c r="M41" s="271"/>
-      <c r="N41" s="271"/>
+      <c r="B41" s="280"/>
+      <c r="C41" s="280"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="280"/>
+      <c r="F41" s="280"/>
+      <c r="G41" s="280"/>
+      <c r="H41" s="280"/>
+      <c r="I41" s="280"/>
+      <c r="J41" s="280"/>
+      <c r="K41" s="280"/>
+      <c r="L41" s="280"/>
+      <c r="M41" s="280"/>
+      <c r="N41" s="280"/>
     </row>
     <row r="42" spans="1:14" s="172" customFormat="1">
       <c r="A42" s="242"/>
@@ -6733,13 +6851,13 @@
       <c r="G42" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="272" t="s">
-        <v>177</v>
-      </c>
-      <c r="I42" s="272"/>
+      <c r="H42" s="281" t="s">
+        <v>381</v>
+      </c>
+      <c r="I42" s="281"/>
       <c r="J42" s="226" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$42,DSKU1,2,0),"dd/MM/yy")</f>
-        <v>ngày 09/07/13</v>
+        <v>ngày 23/03/12</v>
       </c>
       <c r="K42" s="242"/>
       <c r="L42" s="242"/>
@@ -6747,102 +6865,102 @@
       <c r="N42" s="242"/>
     </row>
     <row r="43" spans="1:14" s="172" customFormat="1">
-      <c r="A43" s="271" t="s">
+      <c r="A43" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="271"/>
-      <c r="G43" s="271"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="271"/>
-      <c r="J43" s="271"/>
-      <c r="K43" s="271"/>
-      <c r="L43" s="271"/>
-      <c r="M43" s="271"/>
-      <c r="N43" s="271"/>
+      <c r="B43" s="280"/>
+      <c r="C43" s="280"/>
+      <c r="D43" s="280"/>
+      <c r="E43" s="280"/>
+      <c r="F43" s="280"/>
+      <c r="G43" s="280"/>
+      <c r="H43" s="280"/>
+      <c r="I43" s="280"/>
+      <c r="J43" s="280"/>
+      <c r="K43" s="280"/>
+      <c r="L43" s="280"/>
+      <c r="M43" s="280"/>
+      <c r="N43" s="280"/>
     </row>
     <row r="44" spans="1:14" s="172" customFormat="1">
-      <c r="C44" s="273"/>
-      <c r="D44" s="273"/>
-      <c r="E44" s="273"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="273"/>
-      <c r="H44" s="273"/>
-      <c r="I44" s="273"/>
-      <c r="J44" s="273"/>
-      <c r="K44" s="273"/>
-      <c r="L44" s="273"/>
-      <c r="M44" s="273"/>
-      <c r="N44" s="273"/>
+      <c r="C44" s="282"/>
+      <c r="D44" s="282"/>
+      <c r="E44" s="282"/>
+      <c r="F44" s="282"/>
+      <c r="G44" s="282"/>
+      <c r="H44" s="282"/>
+      <c r="I44" s="282"/>
+      <c r="J44" s="282"/>
+      <c r="K44" s="282"/>
+      <c r="L44" s="282"/>
+      <c r="M44" s="282"/>
+      <c r="N44" s="282"/>
     </row>
     <row r="45" spans="1:14" s="172" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="260" t="s">
+      <c r="A45" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="264"/>
-      <c r="D45" s="260" t="s">
+      <c r="C45" s="268"/>
+      <c r="D45" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="260" t="s">
+      <c r="E45" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="260" t="s">
+      <c r="F45" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="263" t="s">
+      <c r="G45" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="276"/>
-      <c r="I45" s="276"/>
-      <c r="J45" s="270"/>
-      <c r="K45" s="263" t="s">
+      <c r="H45" s="274"/>
+      <c r="I45" s="274"/>
+      <c r="J45" s="275"/>
+      <c r="K45" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="276"/>
-      <c r="M45" s="276"/>
-      <c r="N45" s="270"/>
+      <c r="L45" s="274"/>
+      <c r="M45" s="274"/>
+      <c r="N45" s="275"/>
     </row>
     <row r="46" spans="1:14" s="172" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="261"/>
-      <c r="B46" s="266" t="s">
+      <c r="A46" s="265"/>
+      <c r="B46" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="266" t="s">
+      <c r="C46" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="261"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="268" t="s">
+      <c r="D46" s="265"/>
+      <c r="E46" s="265"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="270"/>
-      <c r="I46" s="268" t="s">
+      <c r="H46" s="275"/>
+      <c r="I46" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="270"/>
-      <c r="K46" s="268" t="s">
+      <c r="J46" s="275"/>
+      <c r="K46" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="270"/>
-      <c r="M46" s="268" t="s">
+      <c r="L46" s="275"/>
+      <c r="M46" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="N46" s="270"/>
+      <c r="N46" s="275"/>
     </row>
     <row r="47" spans="1:14" s="172" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A47" s="262"/>
-      <c r="B47" s="267"/>
-      <c r="C47" s="267"/>
-      <c r="D47" s="262"/>
-      <c r="E47" s="262"/>
-      <c r="F47" s="275"/>
+      <c r="A47" s="266"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="271"/>
+      <c r="D47" s="266"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="284"/>
       <c r="G47" s="173" t="s">
         <v>96</v>
       </c>
@@ -6935,29 +7053,29 @@
       </c>
       <c r="M49" s="178">
         <f>VLOOKUP($H$42,DSKU1,5,0)</f>
-        <v>0</v>
+        <v>95820</v>
       </c>
       <c r="N49" s="179">
         <f>VLOOKUP($H$42,DSKU1,6,0)</f>
-        <v>0</v>
+        <v>1998996840</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="172" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="180">
         <f ca="1">IF(D50&lt;&gt;"",C50,"")</f>
-        <v>41464</v>
+        <v>41359</v>
       </c>
       <c r="B50" s="181" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!B$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>GBC</v>
+        <v>GBN</v>
       </c>
       <c r="C50" s="181">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!C$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>41464</v>
+        <v>41359</v>
       </c>
       <c r="D50" s="231" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!D$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>Vay NT ngân hàng</v>
+        <v>Trả tất toan khế ước</v>
       </c>
       <c r="E50" s="181" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!F$1,SMALL(Dong5,ROWS($1:1)),))</f>
@@ -6965,23 +7083,23 @@
       </c>
       <c r="F50" s="228">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!G$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>21246</v>
+        <v>20970</v>
       </c>
       <c r="G50" s="229">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!H$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>0</v>
+        <v>95820</v>
       </c>
       <c r="H50" s="228">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!I$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>0</v>
+        <v>2009345400</v>
       </c>
       <c r="I50" s="229">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!J$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>92500</v>
+        <v>0</v>
       </c>
       <c r="J50" s="228">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!K$1,SMALL(Dong5,ROWS($1:1)),))</f>
-        <v>1965255000</v>
+        <v>0</v>
       </c>
       <c r="K50" s="154">
         <f t="shared" ref="K50:K52" ca="1" si="9">IF(C50&lt;&gt;"",ROUND(MAX(K49+G50-I50-M49,0),2),0)</f>
@@ -6989,57 +7107,57 @@
       </c>
       <c r="L50" s="155">
         <f t="shared" ref="L50:L52" ca="1" si="10">IF(C50&lt;&gt;"",MAX(L49-N49+H50-J50,0),0)</f>
-        <v>0</v>
+        <v>10348560</v>
       </c>
       <c r="M50" s="154">
         <f t="shared" ref="M50:M52" ca="1" si="11">IF(C50&lt;&gt;"",ROUND(MAX(M49+I50-G50-K49,0),2),0)</f>
-        <v>92500</v>
+        <v>0</v>
       </c>
       <c r="N50" s="155">
         <f t="shared" ref="N50:N52" ca="1" si="12">IF(C50&lt;&gt;"",MAX(N49-L49+J50-H50,0),0)</f>
-        <v>1965255000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="189" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A51" s="180" t="str">
+      <c r="A51" s="180">
         <f t="shared" ref="A51:A52" ca="1" si="13">IF(D51&lt;&gt;"",C51,"")</f>
-        <v/>
+        <v>41359</v>
       </c>
       <c r="B51" s="181" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!B$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="C51" s="181" t="str">
+        <v>CTGS</v>
+      </c>
+      <c r="C51" s="181">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!C$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
+        <v>41359</v>
       </c>
       <c r="D51" s="231" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!D$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
+        <v>Chênh lệch tỷ giá vay NH</v>
       </c>
       <c r="E51" s="181" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!F$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="F51" s="228" t="str">
+        <v>635</v>
+      </c>
+      <c r="F51" s="228">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!G$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="G51" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="G51" s="229">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!H$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="H51" s="228" t="str">
+        <v>0</v>
+      </c>
+      <c r="H51" s="228">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!I$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="I51" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" s="229">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!J$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="J51" s="228" t="str">
+        <v>0</v>
+      </c>
+      <c r="J51" s="228">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong5),"",OFFSET('TH-VAY'!K$1,SMALL(Dong5,ROWS($1:2)),))</f>
-        <v/>
+        <v>10348560</v>
       </c>
       <c r="K51" s="154">
         <f t="shared" ca="1" si="9"/>
@@ -7147,19 +7265,19 @@
       </c>
       <c r="G54" s="192">
         <f ca="1">SUM(G50:G51)</f>
-        <v>0</v>
+        <v>95820</v>
       </c>
       <c r="H54" s="193">
         <f ca="1">SUM(H50:H51)</f>
-        <v>0</v>
+        <v>2009345400</v>
       </c>
       <c r="I54" s="192">
         <f ca="1">SUM(I50:I51)</f>
-        <v>92500</v>
+        <v>0</v>
       </c>
       <c r="J54" s="193">
         <f ca="1">SUM(J50:J52)</f>
-        <v>1965255000</v>
+        <v>10348560</v>
       </c>
       <c r="K54" s="193" t="s">
         <v>23</v>
@@ -7209,11 +7327,11 @@
       </c>
       <c r="M55" s="197">
         <f ca="1">MAX(M49+I54-K49-G54,0)</f>
-        <v>92500</v>
+        <v>0</v>
       </c>
       <c r="N55" s="198">
         <f ca="1">MAX(N49+J54-L49-H54,0)</f>
-        <v>1965255000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="172" customFormat="1">
@@ -7230,7 +7348,7 @@
     <row r="58" spans="1:14" s="172" customFormat="1">
       <c r="C58" s="199" t="str">
         <f>"- Ngày mở sổ: "&amp;TEXT(VLOOKUP($H$9,'311-341'!$B$5:$C$9,2,0),"dd/MM/yy")</f>
-        <v>- Ngày mở sổ: 22/01/10</v>
+        <v>- Ngày mở sổ: 25/02/12</v>
       </c>
       <c r="E58" s="242"/>
       <c r="F58" s="242"/>
@@ -7290,13 +7408,6 @@
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A7:N7"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N36"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="M46:N46"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="A43:N43"/>
@@ -7306,12 +7417,19 @@
     <mergeCell ref="D45:D47"/>
     <mergeCell ref="E45:E47"/>
     <mergeCell ref="F45:F47"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N36"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:N40"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="K45:N45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -7333,7 +7451,7 @@
   <dimension ref="A2:U260"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
     </sheetView>
@@ -7368,11 +7486,11 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="291" t="s">
+      <c r="G2" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
@@ -7382,11 +7500,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="292" t="s">
+      <c r="G3" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
@@ -7394,24 +7512,24 @@
     </row>
     <row r="4" spans="1:21">
       <c r="F4" s="3"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
       <c r="S4" s="3"/>
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="294" t="s">
+      <c r="A5" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="294"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="298"/>
+      <c r="I5" s="298"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="R5" s="28"/>
@@ -7419,17 +7537,17 @@
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="R6" s="28"/>
@@ -7437,17 +7555,17 @@
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="295" t="s">
+      <c r="A7" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="R7" s="28"/>
@@ -7455,17 +7573,17 @@
       <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="281" t="s">
+      <c r="A8" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="281"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="281"/>
-      <c r="F8" s="281"/>
-      <c r="G8" s="281"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="R8" s="28"/>
@@ -7473,17 +7591,17 @@
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="281" t="s">
+      <c r="A9" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="281"/>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
+      <c r="B9" s="285"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="285"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="R9" s="28"/>
@@ -7491,15 +7609,15 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="296"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
+      <c r="A10" s="300"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="300"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="300"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="300"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="R10" s="28"/>
@@ -7507,95 +7625,95 @@
       <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="282" t="s">
+      <c r="A11" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="282" t="s">
+      <c r="C11" s="288"/>
+      <c r="D11" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="282" t="s">
+      <c r="E11" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="283" t="s">
+      <c r="F11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="284"/>
-      <c r="H11" s="283" t="s">
+      <c r="G11" s="288"/>
+      <c r="H11" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="293"/>
-      <c r="O11" s="282" t="s">
+      <c r="I11" s="297"/>
+      <c r="O11" s="286" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="282" t="s">
+      <c r="Q11" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="282" t="s">
+      <c r="R11" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="283" t="s">
+      <c r="S11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="284"/>
+      <c r="T11" s="288"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="282"/>
-      <c r="B12" s="285" t="s">
+      <c r="A12" s="286"/>
+      <c r="B12" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="287" t="s">
+      <c r="C12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="287" t="s">
+      <c r="D12" s="286"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="289" t="s">
+      <c r="G12" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="287" t="s">
+      <c r="H12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="287" t="s">
+      <c r="I12" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="282"/>
-      <c r="P12" s="285" t="s">
+      <c r="O12" s="286"/>
+      <c r="P12" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="282"/>
-      <c r="S12" s="287" t="s">
+      <c r="Q12" s="286"/>
+      <c r="R12" s="286"/>
+      <c r="S12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="289" t="s">
+      <c r="T12" s="293" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="282"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="282"/>
-      <c r="S13" s="288"/>
-      <c r="T13" s="290"/>
+      <c r="A13" s="286"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="292"/>
+      <c r="O13" s="286"/>
+      <c r="P13" s="290"/>
+      <c r="Q13" s="286"/>
+      <c r="R13" s="286"/>
+      <c r="S13" s="292"/>
+      <c r="T13" s="294"/>
     </row>
     <row r="14" spans="1:21" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="29" t="s">
@@ -7703,11 +7821,11 @@
       </c>
       <c r="O16" s="61">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>41284</v>
+        <v>41403</v>
       </c>
       <c r="P16" s="61" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>C05</v>
+        <v>C10</v>
       </c>
       <c r="Q16" s="100" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:1)),))</f>
@@ -7719,7 +7837,7 @@
       </c>
       <c r="S16" s="93">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>400000000</v>
+        <v>550000000</v>
       </c>
       <c r="T16" s="93">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:1)),))</f>
@@ -7763,11 +7881,11 @@
       </c>
       <c r="O17" s="61">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>41347</v>
+        <v>41404</v>
       </c>
       <c r="P17" s="61" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>C07</v>
+        <v>C13</v>
       </c>
       <c r="Q17" s="100" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:2)),))</f>
@@ -7779,7 +7897,7 @@
       </c>
       <c r="S17" s="93">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>600000000</v>
+        <v>510000000</v>
       </c>
       <c r="T17" s="93">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:2)),))</f>
@@ -7823,31 +7941,31 @@
       </c>
       <c r="O18" s="61">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>41360</v>
+        <v>41423</v>
       </c>
       <c r="P18" s="61" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>C17</v>
+        <v>TU04</v>
       </c>
       <c r="Q18" s="100" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Lê Hoàng Long</v>
       </c>
       <c r="R18" s="61" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="S18" s="93">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>600000000</v>
+        <v>0</v>
       </c>
       <c r="T18" s="93">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>0</v>
+        <v>170612000</v>
       </c>
       <c r="U18" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:3)),))=0,"",IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:3)),)))</f>
-        <v/>
+        <v>NL04 &amp; NL15</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="19.5" customHeight="1">
@@ -7883,31 +8001,31 @@
       </c>
       <c r="O19" s="61">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>41377</v>
+        <v>41423</v>
       </c>
       <c r="P19" s="61" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>C11</v>
+        <v>TU04</v>
       </c>
       <c r="Q19" s="100" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Nguyễn Thị Kim Vân</v>
       </c>
       <c r="R19" s="61" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="S19" s="93">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>550000000</v>
+        <v>0</v>
       </c>
       <c r="T19" s="93">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>0</v>
+        <v>155791000</v>
       </c>
       <c r="U19" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:4)),))=0,"",IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:4)),)))</f>
-        <v/>
+        <v>NL07 &amp; NL21</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19.5" customHeight="1">
@@ -7943,31 +8061,31 @@
       </c>
       <c r="O20" s="61">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>41381</v>
+        <v>41423</v>
       </c>
       <c r="P20" s="61" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>C17</v>
+        <v>TU04</v>
       </c>
       <c r="Q20" s="100" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Phạm Thị Bảy</v>
       </c>
       <c r="R20" s="61" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="S20" s="93">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>500000000</v>
+        <v>0</v>
       </c>
       <c r="T20" s="93">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>0</v>
+        <v>167594000</v>
       </c>
       <c r="U20" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:5)),))=0,"",IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:5)),)))</f>
-        <v/>
+        <v>NL06 &amp; NL20</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="19.5" customHeight="1">
@@ -8003,31 +8121,31 @@
       </c>
       <c r="O21" s="61">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>41382</v>
+        <v>41423</v>
       </c>
       <c r="P21" s="61" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>C19</v>
+        <v>TU04</v>
       </c>
       <c r="Q21" s="100" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Tiêu Vĩnh Phát</v>
       </c>
       <c r="R21" s="61" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="S21" s="93">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>370000000</v>
+        <v>0</v>
       </c>
       <c r="T21" s="93">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>0</v>
+        <v>188984000</v>
       </c>
       <c r="U21" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:6)),))=0,"",IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:6)),)))</f>
-        <v/>
+        <v>NL02 &amp; NL13</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="19.5" customHeight="1">
@@ -8066,15 +8184,15 @@
       </c>
       <c r="O22" s="61">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>41393</v>
+        <v>41423</v>
       </c>
       <c r="P22" s="61" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>TU01</v>
+        <v>TU04</v>
       </c>
       <c r="Q22" s="100" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>Hồ Thị Mỹ</v>
+        <v>Trần Ngọc Quyên</v>
       </c>
       <c r="R22" s="61" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:7)),))</f>
@@ -8086,11 +8204,11 @@
       </c>
       <c r="T22" s="93">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>189414000</v>
+        <v>196223000</v>
       </c>
       <c r="U22" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:7)),))=0,"",IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:7)),)))</f>
-        <v>NL02 &amp; NL09</v>
+        <v>NL01 &amp; NL12</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19.5" customHeight="1">
@@ -8129,15 +8247,15 @@
       </c>
       <c r="O23" s="61">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>41393</v>
+        <v>41423</v>
       </c>
       <c r="P23" s="61" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>TU01</v>
+        <v>TU04</v>
       </c>
       <c r="Q23" s="100" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>Lê Hoàng Long</v>
+        <v>Vương Hải Thạnh</v>
       </c>
       <c r="R23" s="61" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:8)),))</f>
@@ -8149,11 +8267,11 @@
       </c>
       <c r="T23" s="93">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>152656000</v>
+        <v>181192000</v>
       </c>
       <c r="U23" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:8)),))=0,"",IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:8)),)))</f>
-        <v>NL46</v>
+        <v>NL03 &amp; NL14</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1">
@@ -8190,33 +8308,33 @@
       <c r="K24" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="O24" s="61">
+      <c r="O24" s="61" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P24" s="61" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q24" s="100" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>Lương Âm</v>
+        <v/>
       </c>
       <c r="R24" s="61" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S24" s="93">
+        <v/>
+      </c>
+      <c r="S24" s="93" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="93">
+        <v/>
+      </c>
+      <c r="T24" s="93" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>284954000</v>
+        <v/>
       </c>
       <c r="U24" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:9)),))=0,"",IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:9)),)))</f>
-        <v>NL01 &amp; NL14 &amp; NL23</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1">
@@ -8253,33 +8371,33 @@
       <c r="K25" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="61" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:10)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P25" s="61" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:10)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q25" s="100" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:10)),))</f>
-        <v>Ngô Văn Vàng</v>
+        <v/>
       </c>
       <c r="R25" s="61" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:10)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S25" s="93">
+        <v/>
+      </c>
+      <c r="S25" s="93" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:10)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="93">
+        <v/>
+      </c>
+      <c r="T25" s="93" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:10)),))</f>
-        <v>98787000</v>
+        <v/>
       </c>
       <c r="U25" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:10)),))=0,"",IF(ROWS($1:10)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:10)),)))</f>
-        <v>NL05</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:21" s="52" customFormat="1" ht="19.5" customHeight="1">
@@ -8316,33 +8434,33 @@
       <c r="K26" s="133" t="s">
         <v>201</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="61" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:11)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P26" s="61" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:11)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q26" s="100" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:11)),))</f>
-        <v>Nguyễn Thanh Bình</v>
+        <v/>
       </c>
       <c r="R26" s="61" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:11)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S26" s="93">
+        <v/>
+      </c>
+      <c r="S26" s="93" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:11)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="93">
+        <v/>
+      </c>
+      <c r="T26" s="93" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:11)),))</f>
-        <v>127818000</v>
+        <v/>
       </c>
       <c r="U26" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:11)),))=0,"",IF(ROWS($1:11)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:11)),)))</f>
-        <v>NL55</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1">
@@ -8379,33 +8497,33 @@
       <c r="K27" s="133" t="s">
         <v>202</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="61" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:12)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P27" s="61" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:12)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q27" s="100" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:12)),))</f>
-        <v>Nguyễn Thị Kim Vân</v>
+        <v/>
       </c>
       <c r="R27" s="61" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:12)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S27" s="93">
+        <v/>
+      </c>
+      <c r="S27" s="93" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:12)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="93">
+        <v/>
+      </c>
+      <c r="T27" s="93" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:12)),))</f>
-        <v>320356000</v>
+        <v/>
       </c>
       <c r="U27" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:12)),))=0,"",IF(ROWS($1:12)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:12)),)))</f>
-        <v>NL31 &amp; NL53 &amp; NL62</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:21" ht="19.5" customHeight="1">
@@ -8442,33 +8560,33 @@
       <c r="K28" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="61" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:13)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P28" s="61" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:13)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q28" s="100" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:13)),))</f>
-        <v>Nguyễn Văn Nhân</v>
+        <v/>
       </c>
       <c r="R28" s="61" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:13)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S28" s="93">
+        <v/>
+      </c>
+      <c r="S28" s="93" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:13)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="93">
+        <v/>
+      </c>
+      <c r="T28" s="93" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:13)),))</f>
-        <v>153846000</v>
+        <v/>
       </c>
       <c r="U28" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:13)),))=0,"",IF(ROWS($1:13)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:13)),)))</f>
-        <v>NL56</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:21" ht="19.5" customHeight="1">
@@ -8505,33 +8623,33 @@
       <c r="K29" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="O29" s="61">
+      <c r="O29" s="61" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:14)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P29" s="61" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:14)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q29" s="100" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:14)),))</f>
-        <v>Nguyễn Văn Tư</v>
+        <v/>
       </c>
       <c r="R29" s="61" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:14)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S29" s="93">
+        <v/>
+      </c>
+      <c r="S29" s="93" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:14)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="93">
+        <v/>
+      </c>
+      <c r="T29" s="93" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:14)),))</f>
-        <v>272493000</v>
+        <v/>
       </c>
       <c r="U29" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:14)),))=0,"",IF(ROWS($1:14)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:14)),)))</f>
-        <v>NL06 &amp; NL11 &amp; NL20</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:21" ht="19.5" customHeight="1">
@@ -8568,33 +8686,33 @@
       <c r="K30" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="O30" s="61">
+      <c r="O30" s="61" t="str">
         <f ca="1">IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:15)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P30" s="61" t="str">
         <f ca="1">IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:15)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q30" s="100" t="str">
         <f ca="1">IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:15)),))</f>
-        <v>Phạm Thị Bảy</v>
+        <v/>
       </c>
       <c r="R30" s="61" t="str">
         <f ca="1">IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:15)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S30" s="93">
+        <v/>
+      </c>
+      <c r="S30" s="93" t="str">
         <f ca="1">IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:15)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="93">
+        <v/>
+      </c>
+      <c r="T30" s="93" t="str">
         <f ca="1">IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:15)),))</f>
-        <v>284613000</v>
+        <v/>
       </c>
       <c r="U30" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:15)),))=0,"",IF(ROWS($1:15)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:15)),)))</f>
-        <v>NL33 &amp; NL48</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:21" s="52" customFormat="1" ht="19.5" customHeight="1">
@@ -8631,33 +8749,33 @@
       <c r="K31" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31" s="61" t="str">
         <f ca="1">IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:16)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P31" s="61" t="str">
         <f ca="1">IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:16)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q31" s="100" t="str">
         <f ca="1">IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:16)),))</f>
-        <v>Tiêu Vĩnh Phát</v>
+        <v/>
       </c>
       <c r="R31" s="61" t="str">
         <f ca="1">IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:16)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S31" s="93">
+        <v/>
+      </c>
+      <c r="S31" s="93" t="str">
         <f ca="1">IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:16)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="93">
+        <v/>
+      </c>
+      <c r="T31" s="93" t="str">
         <f ca="1">IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:16)),))</f>
-        <v>231372000</v>
+        <v/>
       </c>
       <c r="U31" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:16)),))=0,"",IF(ROWS($1:16)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:16)),)))</f>
-        <v>NL44 &amp; NL63</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:21" ht="19.5" customHeight="1">
@@ -8694,33 +8812,33 @@
       <c r="K32" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="O32" s="61">
+      <c r="O32" s="61" t="str">
         <f ca="1">IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:17)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P32" s="61" t="str">
         <f ca="1">IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:17)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q32" s="100" t="str">
         <f ca="1">IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:17)),))</f>
-        <v>Trần Ngọc Quyên</v>
+        <v/>
       </c>
       <c r="R32" s="61" t="str">
         <f ca="1">IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:17)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S32" s="93">
+        <v/>
+      </c>
+      <c r="S32" s="93" t="str">
         <f ca="1">IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:17)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="93">
+        <v/>
+      </c>
+      <c r="T32" s="93" t="str">
         <f ca="1">IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:17)),))</f>
-        <v>138628000</v>
+        <v/>
       </c>
       <c r="U32" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:17)),))=0,"",IF(ROWS($1:17)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:17)),)))</f>
-        <v>NL43</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:21" ht="19.5" customHeight="1">
@@ -8757,33 +8875,33 @@
       <c r="K33" s="133" t="s">
         <v>208</v>
       </c>
-      <c r="O33" s="61">
+      <c r="O33" s="61" t="str">
         <f ca="1">IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:18)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P33" s="61" t="str">
         <f ca="1">IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:18)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q33" s="100" t="str">
         <f ca="1">IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:18)),))</f>
-        <v>Trần Văn An</v>
+        <v/>
       </c>
       <c r="R33" s="61" t="str">
         <f ca="1">IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:18)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S33" s="93">
+        <v/>
+      </c>
+      <c r="S33" s="93" t="str">
         <f ca="1">IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:18)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="93">
+        <v/>
+      </c>
+      <c r="T33" s="93" t="str">
         <f ca="1">IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:18)),))</f>
-        <v>123336000</v>
+        <v/>
       </c>
       <c r="U33" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:18)),))=0,"",IF(ROWS($1:18)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:18)),)))</f>
-        <v>NL54</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:21" ht="19.5" customHeight="1">
@@ -8820,33 +8938,33 @@
       <c r="K34" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="61" t="str">
         <f ca="1">IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:19)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P34" s="61" t="str">
         <f ca="1">IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:19)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q34" s="100" t="str">
         <f ca="1">IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:19)),))</f>
-        <v>Trương Quốc Tuấn</v>
+        <v/>
       </c>
       <c r="R34" s="61" t="str">
         <f ca="1">IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:19)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S34" s="93">
+        <v/>
+      </c>
+      <c r="S34" s="93" t="str">
         <f ca="1">IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:19)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="93">
+        <v/>
+      </c>
+      <c r="T34" s="93" t="str">
         <f ca="1">IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:19)),))</f>
-        <v>246172000</v>
+        <v/>
       </c>
       <c r="U34" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:19)),))=0,"",IF(ROWS($1:19)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:19)),)))</f>
-        <v>NL32 &amp; NL34 &amp; NL61</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:21" ht="19.5" customHeight="1">
@@ -8883,33 +9001,33 @@
       <c r="K35" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="O35" s="61">
+      <c r="O35" s="61" t="str">
         <f ca="1">IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:20)),))</f>
-        <v>41393</v>
+        <v/>
       </c>
       <c r="P35" s="61" t="str">
         <f ca="1">IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:20)),))</f>
-        <v>TU01</v>
+        <v/>
       </c>
       <c r="Q35" s="100" t="str">
         <f ca="1">IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:20)),))</f>
-        <v>Vương Hải Thạnh</v>
+        <v/>
       </c>
       <c r="R35" s="61" t="str">
         <f ca="1">IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:20)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S35" s="93">
+        <v/>
+      </c>
+      <c r="S35" s="93" t="str">
         <f ca="1">IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:20)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="93">
+        <v/>
+      </c>
+      <c r="T35" s="93" t="str">
         <f ca="1">IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:20)),))</f>
-        <v>402133000</v>
+        <v/>
       </c>
       <c r="U35" s="139" t="str">
         <f ca="1">IF(IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:20)),))=0,"",IF(ROWS($1:20)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:20)),)))</f>
-        <v>NL30 &amp; NL45 &amp; NL60</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:21" ht="19.5" customHeight="1">
@@ -8941,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="36">
-        <f t="shared" ref="J16:J79" si="4">IF(A36&lt;&gt;"",MONTH(A36),"")</f>
+        <f t="shared" ref="J36:J43" si="4">IF(A36&lt;&gt;"",MONTH(A36),"")</f>
         <v>5</v>
       </c>
       <c r="O36" s="61" t="str">
@@ -11494,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="36">
-        <f t="shared" ref="J80:J143" si="7">IF(A91&lt;&gt;"",MONTH(A91),"")</f>
+        <f t="shared" ref="J91:J143" si="7">IF(A91&lt;&gt;"",MONTH(A91),"")</f>
         <v>8</v>
       </c>
       <c r="O91" s="104"/>
@@ -14781,11 +14899,11 @@
       </c>
       <c r="S171" s="103">
         <f ca="1">SUM(S17:S170)</f>
-        <v>2620000000</v>
+        <v>510000000</v>
       </c>
       <c r="T171" s="103">
         <f ca="1">SUM(T17:T170)</f>
-        <v>3026578000</v>
+        <v>1060396000</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="19.5" customHeight="1">
@@ -14903,13 +15021,13 @@
       <c r="B176" s="27"/>
       <c r="C176" s="27"/>
       <c r="D176" s="28"/>
-      <c r="E176" s="281" t="s">
+      <c r="E176" s="285" t="s">
         <v>167</v>
       </c>
-      <c r="F176" s="281"/>
-      <c r="G176" s="281"/>
-      <c r="H176" s="281"/>
-      <c r="I176" s="281"/>
+      <c r="F176" s="285"/>
+      <c r="G176" s="285"/>
+      <c r="H176" s="285"/>
+      <c r="I176" s="285"/>
       <c r="J176" s="59"/>
       <c r="K176" s="112"/>
       <c r="L176" s="59"/>
@@ -14924,58 +15042,58 @@
       <c r="U176" s="141"/>
     </row>
     <row r="177" spans="1:21" s="1" customFormat="1">
-      <c r="A177" s="281" t="s">
+      <c r="A177" s="285" t="s">
         <v>25</v>
       </c>
-      <c r="B177" s="281"/>
-      <c r="C177" s="281"/>
-      <c r="D177" s="281"/>
-      <c r="E177" s="281" t="s">
+      <c r="B177" s="285"/>
+      <c r="C177" s="285"/>
+      <c r="D177" s="285"/>
+      <c r="E177" s="285" t="s">
         <v>26</v>
       </c>
-      <c r="F177" s="281"/>
-      <c r="G177" s="281"/>
-      <c r="H177" s="281"/>
-      <c r="I177" s="281"/>
+      <c r="F177" s="285"/>
+      <c r="G177" s="285"/>
+      <c r="H177" s="285"/>
+      <c r="I177" s="285"/>
       <c r="J177" s="59"/>
       <c r="K177" s="135"/>
       <c r="L177" s="60"/>
       <c r="M177" s="58"/>
       <c r="N177" s="58"/>
-      <c r="O177" s="297" t="s">
+      <c r="O177" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="P177" s="297"/>
-      <c r="Q177" s="297"/>
+      <c r="P177" s="301"/>
+      <c r="Q177" s="301"/>
       <c r="R177" s="58"/>
       <c r="S177" s="58"/>
       <c r="T177" s="58"/>
       <c r="U177" s="141"/>
     </row>
     <row r="178" spans="1:21" s="1" customFormat="1">
-      <c r="A178" s="281" t="s">
+      <c r="A178" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="B178" s="281"/>
-      <c r="C178" s="281"/>
-      <c r="D178" s="281"/>
-      <c r="E178" s="281" t="s">
+      <c r="B178" s="285"/>
+      <c r="C178" s="285"/>
+      <c r="D178" s="285"/>
+      <c r="E178" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="F178" s="281"/>
-      <c r="G178" s="281"/>
-      <c r="H178" s="281"/>
-      <c r="I178" s="281"/>
+      <c r="F178" s="285"/>
+      <c r="G178" s="285"/>
+      <c r="H178" s="285"/>
+      <c r="I178" s="285"/>
       <c r="J178" s="59"/>
       <c r="K178" s="134"/>
       <c r="L178" s="59"/>
       <c r="M178" s="58"/>
       <c r="N178" s="58"/>
-      <c r="O178" s="297" t="s">
+      <c r="O178" s="301" t="s">
         <v>27</v>
       </c>
-      <c r="P178" s="297"/>
-      <c r="Q178" s="297"/>
+      <c r="P178" s="301"/>
+      <c r="Q178" s="301"/>
       <c r="R178" s="58"/>
       <c r="S178" s="58"/>
       <c r="T178" s="58"/>
@@ -15825,11 +15943,11 @@
       <c r="D2" s="28"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="291" t="s">
+      <c r="G2" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
@@ -15846,11 +15964,11 @@
       <c r="D3" s="28"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="292" t="s">
+      <c r="G3" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="28"/>
@@ -15865,9 +15983,9 @@
       <c r="D4" s="28"/>
       <c r="E4" s="27"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="28"/>
@@ -15876,17 +15994,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="294" t="s">
+      <c r="A5" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="294"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="298"/>
+      <c r="I5" s="298"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -15894,17 +16012,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -15912,17 +16030,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="295" t="s">
+      <c r="A7" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="281"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -15930,19 +16048,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="281" t="s">
+      <c r="A8" s="285" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="281"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="281"/>
-      <c r="F8" s="281"/>
-      <c r="G8" s="281"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -15950,17 +16068,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="281" t="s">
+      <c r="A9" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="295"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="299"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -15970,13 +16088,13 @@
     <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="298"/>
-      <c r="D10" s="298"/>
-      <c r="E10" s="298"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="302"/>
       <c r="N10" s="27"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -15984,95 +16102,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="282" t="s">
+      <c r="A11" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="282" t="s">
+      <c r="C11" s="288"/>
+      <c r="D11" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="282" t="s">
+      <c r="E11" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="283" t="s">
+      <c r="F11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="284"/>
-      <c r="H11" s="283" t="s">
+      <c r="G11" s="288"/>
+      <c r="H11" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="293"/>
-      <c r="N11" s="283" t="s">
+      <c r="I11" s="297"/>
+      <c r="N11" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="284"/>
-      <c r="P11" s="282" t="s">
+      <c r="O11" s="288"/>
+      <c r="P11" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="282" t="s">
+      <c r="Q11" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="283" t="s">
+      <c r="R11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="284"/>
+      <c r="S11" s="288"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="282"/>
-      <c r="B12" s="287" t="s">
+      <c r="A12" s="286"/>
+      <c r="B12" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="287" t="s">
+      <c r="C12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="287" t="s">
+      <c r="D12" s="286"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="289" t="s">
+      <c r="G12" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="287" t="s">
+      <c r="H12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="287" t="s">
+      <c r="I12" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="287" t="s">
+      <c r="N12" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="287" t="s">
+      <c r="O12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="287" t="s">
+      <c r="P12" s="286"/>
+      <c r="Q12" s="286"/>
+      <c r="R12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="289" t="s">
+      <c r="S12" s="293" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="282"/>
-      <c r="B13" s="288"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="N13" s="288"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="282"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="290"/>
+      <c r="A13" s="286"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="292"/>
+      <c r="N13" s="292"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="286"/>
+      <c r="Q13" s="286"/>
+      <c r="R13" s="292"/>
+      <c r="S13" s="294"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="29" t="s">
@@ -17737,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="36">
-        <f t="shared" ref="J16:J47" si="4">IF(A41&lt;&gt;"",MONTH(A41),"")</f>
+        <f t="shared" ref="J41:J47" si="4">IF(A41&lt;&gt;"",MONTH(A41),"")</f>
         <v>5</v>
       </c>
       <c r="K41" s="201"/>
@@ -19075,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="36">
-        <f t="shared" ref="J68:J98" si="6">IF(A69&lt;&gt;"",MONTH(A69),"")</f>
+        <f t="shared" ref="J69:J98" si="6">IF(A69&lt;&gt;"",MONTH(A69),"")</f>
         <v>7</v>
       </c>
       <c r="K69" s="201"/>
@@ -24224,13 +24342,13 @@
       <c r="B196" s="27"/>
       <c r="C196" s="27"/>
       <c r="D196" s="28"/>
-      <c r="E196" s="281" t="s">
+      <c r="E196" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="F196" s="281"/>
-      <c r="G196" s="281"/>
-      <c r="H196" s="281"/>
-      <c r="I196" s="281"/>
+      <c r="F196" s="285"/>
+      <c r="G196" s="285"/>
+      <c r="H196" s="285"/>
+      <c r="I196" s="285"/>
       <c r="J196" s="50"/>
       <c r="L196" s="58"/>
       <c r="M196" s="58"/>
@@ -24242,19 +24360,19 @@
       <c r="S196" s="58"/>
     </row>
     <row r="197" spans="1:19">
-      <c r="A197" s="281" t="s">
+      <c r="A197" s="285" t="s">
         <v>25</v>
       </c>
-      <c r="B197" s="281"/>
-      <c r="C197" s="281"/>
-      <c r="D197" s="281"/>
-      <c r="E197" s="281" t="s">
+      <c r="B197" s="285"/>
+      <c r="C197" s="285"/>
+      <c r="D197" s="285"/>
+      <c r="E197" s="285" t="s">
         <v>26</v>
       </c>
-      <c r="F197" s="281"/>
-      <c r="G197" s="281"/>
-      <c r="H197" s="281"/>
-      <c r="I197" s="281"/>
+      <c r="F197" s="285"/>
+      <c r="G197" s="285"/>
+      <c r="H197" s="285"/>
+      <c r="I197" s="285"/>
       <c r="J197" s="50"/>
       <c r="L197" s="58"/>
       <c r="M197" s="58"/>
@@ -24266,19 +24384,19 @@
       <c r="S197" s="58"/>
     </row>
     <row r="198" spans="1:19">
-      <c r="A198" s="281" t="s">
+      <c r="A198" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="B198" s="281"/>
-      <c r="C198" s="281"/>
-      <c r="D198" s="281"/>
-      <c r="E198" s="281" t="s">
+      <c r="B198" s="285"/>
+      <c r="C198" s="285"/>
+      <c r="D198" s="285"/>
+      <c r="E198" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="F198" s="281"/>
-      <c r="G198" s="281"/>
-      <c r="H198" s="281"/>
-      <c r="I198" s="281"/>
+      <c r="F198" s="285"/>
+      <c r="G198" s="285"/>
+      <c r="H198" s="285"/>
+      <c r="I198" s="285"/>
       <c r="J198" s="59"/>
       <c r="K198" s="201"/>
       <c r="L198" s="59"/>
@@ -24481,7 +24599,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24521,38 +24639,38 @@
       <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="299"/>
+      <c r="B3" s="303"/>
       <c r="D3" s="92">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="281" t="str">
+      <c r="A4" s="285" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
-        <v>Ngày  29  tháng  4   năm   2013</v>
-      </c>
-      <c r="B4" s="281"/>
+        <v>Ngày  29  tháng  5   năm   2013</v>
+      </c>
+      <c r="B4" s="285"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="300"/>
+      <c r="A5" s="304"/>
       <c r="B5" s="66" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!P$1,SMALL(Dong02,ROWS($1:1)),))</f>
-        <v>Số:   TU01</v>
+        <v>Số:   TU04</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="300"/>
+      <c r="A6" s="304"/>
       <c r="B6" s="66" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="300"/>
+      <c r="A7" s="304"/>
       <c r="B7" s="66" t="s">
         <v>71</v>
       </c>
@@ -24599,7 +24717,7 @@
       </c>
       <c r="B13" s="73">
         <f ca="1">B14+B15</f>
-        <v>3020000000</v>
+        <v>1062072400</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -24613,7 +24731,7 @@
       </c>
       <c r="B14" s="75">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dau),0,OFFSET('141-BH'!H$1,SMALL(Dau,COUNT(Dau)),))</f>
-        <v>0</v>
+        <v>2072400</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1">
@@ -24622,17 +24740,17 @@
       </c>
       <c r="B15" s="75">
         <f ca="1">SUM(B16:B22)</f>
-        <v>3020000000</v>
+        <v>1060000000</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="76" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:1)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:1)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:1)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:1)),)))</f>
-        <v>- Phiếu chi số: ........C05.....ngày....10/1/2013</v>
+        <v>- Phiếu chi số: ........C10.....ngày....9/5/2013</v>
       </c>
       <c r="B16" s="77">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:1)),))</f>
-        <v>400000000</v>
+        <v>550000000</v>
       </c>
       <c r="C16" s="121"/>
       <c r="D16" s="122"/>
@@ -24643,11 +24761,11 @@
     <row r="17" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="76" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:2)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:2)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:2)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:2)),)))</f>
-        <v>- Phiếu chi số: ........C07.....ngày....14/3/2013</v>
+        <v>- Phiếu chi số: ........C13.....ngày....10/5/2013</v>
       </c>
       <c r="B17" s="77">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:2)),))</f>
-        <v>600000000</v>
+        <v>510000000</v>
       </c>
       <c r="C17" s="121"/>
       <c r="D17" s="122"/>
@@ -24658,11 +24776,11 @@
     <row r="18" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="76" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:3)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:3)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:3)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:3)),)))</f>
-        <v>- Phiếu chi số: ........C17.....ngày....27/3/2013</v>
-      </c>
-      <c r="B18" s="77">
+        <v/>
+      </c>
+      <c r="B18" s="77" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:3)),))</f>
-        <v>600000000</v>
+        <v/>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="122"/>
@@ -24673,11 +24791,11 @@
     <row r="19" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="76" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:4)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:4)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:4)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:4)),)))</f>
-        <v>- Phiếu chi số: ........C11.....ngày....13/4/2013</v>
-      </c>
-      <c r="B19" s="77">
+        <v/>
+      </c>
+      <c r="B19" s="77" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:4)),))</f>
-        <v>550000000</v>
+        <v/>
       </c>
       <c r="C19" s="121"/>
       <c r="D19" s="122"/>
@@ -24688,11 +24806,11 @@
     <row r="20" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="76" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:5)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:5)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:5)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:5)),)))</f>
-        <v>- Phiếu chi số: ........C17.....ngày....17/4/2013</v>
-      </c>
-      <c r="B20" s="77">
+        <v/>
+      </c>
+      <c r="B20" s="77" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:5)),))</f>
-        <v>500000000</v>
+        <v/>
       </c>
       <c r="C20" s="121"/>
       <c r="D20" s="122"/>
@@ -24703,11 +24821,11 @@
     <row r="21" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="76" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:6)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:6)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:6)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:6)),)))</f>
-        <v>- Phiếu chi số: ........C19.....ngày....18/4/2013</v>
-      </c>
-      <c r="B21" s="77">
+        <v/>
+      </c>
+      <c r="B21" s="77" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:6)),))</f>
-        <v>370000000</v>
+        <v/>
       </c>
       <c r="C21" s="121"/>
       <c r="D21" s="122"/>
@@ -24736,7 +24854,7 @@
       </c>
       <c r="B23" s="73">
         <f ca="1">SUM(B24:B37)</f>
-        <v>3026578000</v>
+        <v>1060396000</v>
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="125"/>
@@ -24747,11 +24865,11 @@
     <row r="24" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="81" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:1)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:1)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Hồ Thị Mỹ - PNK số: NL02 &amp; NL09 Tháng 4/2013</v>
+        <v>- Lê Hoàng Long - PNK số: NL04 &amp; NL15 Tháng 5/2013</v>
       </c>
       <c r="B24" s="82">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:1)),))</f>
-        <v>189414000</v>
+        <v>170612000</v>
       </c>
       <c r="C24" s="126"/>
       <c r="D24" s="127"/>
@@ -24762,11 +24880,11 @@
     <row r="25" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="81" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:2)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:2)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Lê Hoàng Long - PNK số: NL46 Tháng 4/2013</v>
+        <v>- Nguyễn Thị Kim Vân - PNK số: NL07 &amp; NL21 Tháng 5/2013</v>
       </c>
       <c r="B25" s="82">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:2)),))</f>
-        <v>152656000</v>
+        <v>155791000</v>
       </c>
       <c r="C25" s="129"/>
       <c r="D25" s="130"/>
@@ -24777,11 +24895,11 @@
     <row r="26" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="81" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:3)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:3)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Lương Âm - PNK số: NL01 &amp; NL14 &amp; NL23 Tháng 4/2013</v>
+        <v>- Phạm Thị Bảy - PNK số: NL06 &amp; NL20 Tháng 5/2013</v>
       </c>
       <c r="B26" s="82">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:3)),))</f>
-        <v>284954000</v>
+        <v>167594000</v>
       </c>
       <c r="C26" s="131"/>
       <c r="D26" s="130"/>
@@ -24792,11 +24910,11 @@
     <row r="27" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="81" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:4)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:4)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Ngô Văn Vàng - PNK số: NL05 Tháng 4/2013</v>
+        <v>- Tiêu Vĩnh Phát - PNK số: NL02 &amp; NL13 Tháng 5/2013</v>
       </c>
       <c r="B27" s="82">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:4)),))</f>
-        <v>98787000</v>
+        <v>188984000</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="130"/>
@@ -24807,11 +24925,11 @@
     <row r="28" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="81" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:5)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:5)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Nguyễn Thanh Bình - PNK số: NL55 Tháng 4/2013</v>
+        <v>- Trần Ngọc Quyên - PNK số: NL01 &amp; NL12 Tháng 5/2013</v>
       </c>
       <c r="B28" s="82">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:5)),))</f>
-        <v>127818000</v>
+        <v>196223000</v>
       </c>
       <c r="C28" s="90"/>
       <c r="D28" s="127"/>
@@ -24822,11 +24940,11 @@
     <row r="29" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="81" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:6)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:6)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Nguyễn Thị Kim Vân - PNK số: NL31 &amp; NL53 &amp; NL62 Tháng 4/2013</v>
+        <v>- Vương Hải Thạnh - PNK số: NL03 &amp; NL14 Tháng 5/2013</v>
       </c>
       <c r="B29" s="82">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:6)),))</f>
-        <v>320356000</v>
+        <v>181192000</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="130"/>
@@ -24837,11 +24955,11 @@
     <row r="30" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="81" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:7)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:7)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Nguyễn Văn Nhân - PNK số: NL56 Tháng 4/2013</v>
-      </c>
-      <c r="B30" s="82">
+        <v/>
+      </c>
+      <c r="B30" s="82" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:7)),))</f>
-        <v>153846000</v>
+        <v/>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="130"/>
@@ -24852,11 +24970,11 @@
     <row r="31" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="81" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:8)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:8)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Nguyễn Văn Tư - PNK số: NL06 &amp; NL11 &amp; NL20 Tháng 4/2013</v>
-      </c>
-      <c r="B31" s="82">
+        <v/>
+      </c>
+      <c r="B31" s="82" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:8)),))</f>
-        <v>272493000</v>
+        <v/>
       </c>
       <c r="C31" s="90"/>
       <c r="D31" s="130"/>
@@ -24867,11 +24985,11 @@
     <row r="32" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="81" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:9)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:9)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Phạm Thị Bảy - PNK số: NL33 &amp; NL48 Tháng 4/2013</v>
-      </c>
-      <c r="B32" s="82">
+        <v/>
+      </c>
+      <c r="B32" s="82" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:9)),))</f>
-        <v>284613000</v>
+        <v/>
       </c>
       <c r="C32" s="90"/>
       <c r="D32" s="127"/>
@@ -24882,11 +25000,11 @@
     <row r="33" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A33" s="81" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:10)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:10)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Tiêu Vĩnh Phát - PNK số: NL44 &amp; NL63 Tháng 4/2013</v>
-      </c>
-      <c r="B33" s="82">
+        <v/>
+      </c>
+      <c r="B33" s="82" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:10)),))</f>
-        <v>231372000</v>
+        <v/>
       </c>
       <c r="C33" s="90"/>
       <c r="D33" s="130"/>
@@ -24897,11 +25015,11 @@
     <row r="34" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A34" s="81" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:11)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:11)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Trần Ngọc Quyên - PNK số: NL43 Tháng 4/2013</v>
-      </c>
-      <c r="B34" s="82">
+        <v/>
+      </c>
+      <c r="B34" s="82" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:11)),))</f>
-        <v>138628000</v>
+        <v/>
       </c>
       <c r="C34" s="90"/>
       <c r="D34" s="130"/>
@@ -24912,11 +25030,11 @@
     <row r="35" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="81" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:12)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:12)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Trần Văn An - PNK số: NL54 Tháng 4/2013</v>
-      </c>
-      <c r="B35" s="82">
+        <v/>
+      </c>
+      <c r="B35" s="82" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:12)),))</f>
-        <v>123336000</v>
+        <v/>
       </c>
       <c r="C35" s="90"/>
       <c r="D35" s="127"/>
@@ -24927,11 +25045,11 @@
     <row r="36" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A36" s="81" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:13)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:13)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Trương Quốc Tuấn - PNK số: NL32 &amp; NL34 &amp; NL61 Tháng 4/2013</v>
-      </c>
-      <c r="B36" s="82">
+        <v/>
+      </c>
+      <c r="B36" s="82" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:13)),))</f>
-        <v>246172000</v>
+        <v/>
       </c>
       <c r="C36" s="90"/>
       <c r="D36" s="130"/>
@@ -24942,11 +25060,11 @@
     <row r="37" spans="1:7" s="79" customFormat="1" ht="18.75" customHeight="1">
       <c r="A37" s="81" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:14)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:14)),)&amp; " Tháng "&amp;$D$3&amp;"/2013")</f>
-        <v>- Vương Hải Thạnh - PNK số: NL30 &amp; NL45 &amp; NL60 Tháng 4/2013</v>
-      </c>
-      <c r="B37" s="82">
+        <v/>
+      </c>
+      <c r="B37" s="82" t="str">
         <f ca="1">IF(ROWS($1:14)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:14)),))</f>
-        <v>402133000</v>
+        <v/>
       </c>
       <c r="C37" s="90"/>
       <c r="D37" s="130"/>
@@ -24960,7 +25078,7 @@
       </c>
       <c r="B38" s="73">
         <f ca="1">B13-B23</f>
-        <v>-6578000</v>
+        <v>1676400</v>
       </c>
       <c r="C38" s="130"/>
       <c r="D38" s="132"/>
@@ -24974,7 +25092,7 @@
       </c>
       <c r="B39" s="75">
         <f ca="1">B38</f>
-        <v>-6578000</v>
+        <v>1676400</v>
       </c>
       <c r="C39" s="130"/>
       <c r="D39" s="132"/>
@@ -25346,38 +25464,38 @@
       <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="299"/>
+      <c r="B3" s="303"/>
       <c r="D3" s="92">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="281" t="str">
+      <c r="A4" s="285" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-VV'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-VV'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-VV'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v>Ngày  29  tháng  4   năm   2013</v>
       </c>
-      <c r="B4" s="281"/>
+      <c r="B4" s="285"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="300"/>
+      <c r="A5" s="304"/>
       <c r="B5" s="66" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-VV'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v>Số:   TU02</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="300"/>
+      <c r="A6" s="304"/>
       <c r="B6" s="66" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="300"/>
+      <c r="A7" s="304"/>
       <c r="B7" s="66" t="s">
         <v>71</v>
       </c>
